--- a/Project_Management/Sprint 4/Burndown chart.xlsx
+++ b/Project_Management/Sprint 4/Burndown chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\freecol-SE-exercise\Project_Management\Sprint 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4010B1-396D-4436-B732-341988B0113E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E679A8-B1CF-4AC3-B8AF-6F3768A9093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burndown Chart" sheetId="1" r:id="rId1"/>
@@ -571,6 +571,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,9 +621,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2179,52 +2179,52 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="40"/>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2253,8 +2253,8 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2294,7 +2294,9 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
@@ -2313,7 +2315,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2330,9 +2332,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9">
-        <v>3</v>
-      </c>
+      <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
@@ -2389,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="45">
+      <c r="D12" s="29">
         <v>0</v>
       </c>
       <c r="E12" s="12"/>
@@ -2449,10 +2449,10 @@
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="2">
         <v>0</v>
       </c>
@@ -2486,10 +2486,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="16">
         <f>SUM(D6:D16)</f>
         <v>4</v>
@@ -2524,10 +2524,10 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="28">
         <f>D17</f>
         <v>4</v>
